--- a/src/main/resources/excel/4 Present Sentence.xlsx
+++ b/src/main/resources/excel/4 Present Sentence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Asking and Giving Permission" sheetId="1" state="visible" r:id="rId3"/>
@@ -1398,16 +1398,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1626,7 +1622,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="83.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="46.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,7 +1632,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1647,7 +1643,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1658,7 +1654,7 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1669,7 +1665,7 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1680,7 +1676,7 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1691,7 +1687,7 @@
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1702,7 +1698,7 @@
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1713,7 +1709,7 @@
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1724,7 +1720,7 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1735,7 +1731,7 @@
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1746,7 +1742,7 @@
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1757,7 +1753,7 @@
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1768,7 +1764,7 @@
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1779,7 +1775,7 @@
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1790,7 +1786,7 @@
       <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1813,7 +1809,7 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K57" activeCellId="0" sqref="K57"/>
     </sheetView>
   </sheetViews>
@@ -1830,7 +1826,7 @@
       <c r="B1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>332</v>
       </c>
     </row>
@@ -1841,7 +1837,7 @@
       <c r="B2" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>335</v>
       </c>
     </row>
@@ -1852,7 +1848,7 @@
       <c r="B3" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>338</v>
       </c>
     </row>
@@ -1863,7 +1859,7 @@
       <c r="B4" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>341</v>
       </c>
     </row>
@@ -1874,7 +1870,7 @@
       <c r="B5" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>344</v>
       </c>
     </row>
@@ -1885,7 +1881,7 @@
       <c r="B6" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>347</v>
       </c>
     </row>
@@ -1896,7 +1892,7 @@
       <c r="B7" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>350</v>
       </c>
     </row>
@@ -1907,7 +1903,7 @@
       <c r="B8" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>353</v>
       </c>
     </row>
@@ -1918,7 +1914,7 @@
       <c r="B9" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>356</v>
       </c>
     </row>
@@ -1929,7 +1925,7 @@
       <c r="B10" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>359</v>
       </c>
     </row>
@@ -1940,7 +1936,7 @@
       <c r="B11" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>362</v>
       </c>
     </row>
@@ -1951,7 +1947,7 @@
       <c r="B12" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>365</v>
       </c>
     </row>
@@ -1980,9 +1976,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="66.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="45.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="51.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="66.03"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1992,7 +1988,7 @@
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2003,7 +1999,7 @@
       <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2014,7 +2010,7 @@
       <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2025,7 +2021,7 @@
       <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2036,7 +2032,7 @@
       <c r="B5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2065,9 +2061,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="50.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="44.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="32.09"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2077,7 +2073,7 @@
       <c r="B1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2088,7 +2084,7 @@
       <c r="B2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2099,7 +2095,7 @@
       <c r="B3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2110,7 +2106,7 @@
       <c r="B4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2121,7 +2117,7 @@
       <c r="B5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2132,7 +2128,7 @@
       <c r="B6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2143,7 +2139,7 @@
       <c r="B7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2154,7 +2150,7 @@
       <c r="B8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2165,7 +2161,7 @@
       <c r="B9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2176,7 +2172,7 @@
       <c r="B10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2187,7 +2183,7 @@
       <c r="B11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2198,7 +2194,7 @@
       <c r="B12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2209,7 +2205,7 @@
       <c r="B13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2220,7 +2216,7 @@
       <c r="B14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2231,7 +2227,7 @@
       <c r="B15" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2254,7 +2250,7 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -2262,7 +2258,8 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="36.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2272,7 +2269,7 @@
       <c r="B1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2283,7 +2280,7 @@
       <c r="B2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2294,7 +2291,7 @@
       <c r="B3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2305,7 +2302,7 @@
       <c r="B4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2316,7 +2313,7 @@
       <c r="B5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2327,7 +2324,7 @@
       <c r="B6" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2338,7 +2335,7 @@
       <c r="B7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2349,7 +2346,7 @@
       <c r="B8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2360,7 +2357,7 @@
       <c r="B9" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2371,7 +2368,7 @@
       <c r="B10" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2382,7 +2379,7 @@
       <c r="B11" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2393,7 +2390,7 @@
       <c r="B12" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2404,7 +2401,7 @@
       <c r="B13" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2415,7 +2412,7 @@
       <c r="B14" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2426,7 +2423,7 @@
       <c r="B15" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2455,9 +2452,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="57.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="35.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2467,7 +2464,7 @@
       <c r="B1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2478,7 +2475,7 @@
       <c r="B2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2489,7 +2486,7 @@
       <c r="B3" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2500,7 +2497,7 @@
       <c r="B4" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2511,7 +2508,7 @@
       <c r="B5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2522,7 +2519,7 @@
       <c r="B6" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2533,7 +2530,7 @@
       <c r="B7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2544,7 +2541,7 @@
       <c r="B8" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2555,7 +2552,7 @@
       <c r="B9" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2566,7 +2563,7 @@
       <c r="B10" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2577,7 +2574,7 @@
       <c r="B11" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2588,7 +2585,7 @@
       <c r="B12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2599,7 +2596,7 @@
       <c r="B13" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2630,7 +2627,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="61.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="62.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="58.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="58.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2640,7 +2637,7 @@
       <c r="B1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2651,7 +2648,7 @@
       <c r="B2" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2662,7 +2659,7 @@
       <c r="B3" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2673,7 +2670,7 @@
       <c r="B4" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2684,7 +2681,7 @@
       <c r="B5" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2695,7 +2692,7 @@
       <c r="B6" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2706,7 +2703,7 @@
       <c r="B7" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2717,7 +2714,7 @@
       <c r="B8" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2728,7 +2725,7 @@
       <c r="B9" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2739,7 +2736,7 @@
       <c r="B10" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2750,7 +2747,7 @@
       <c r="B11" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>221</v>
       </c>
     </row>
@@ -2761,7 +2758,7 @@
       <c r="B12" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2772,7 +2769,7 @@
       <c r="B13" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>227</v>
       </c>
     </row>
@@ -2783,7 +2780,7 @@
       <c r="B14" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2812,9 +2809,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="49.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="38.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="36.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="49.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2824,7 +2821,7 @@
       <c r="B1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2835,7 +2832,7 @@
       <c r="B2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2846,7 +2843,7 @@
       <c r="B3" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2857,7 +2854,7 @@
       <c r="B4" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>242</v>
       </c>
     </row>
@@ -2868,7 +2865,7 @@
       <c r="B5" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>245</v>
       </c>
     </row>
@@ -2879,7 +2876,7 @@
       <c r="B6" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>248</v>
       </c>
     </row>
@@ -2910,7 +2907,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="38.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="38.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2920,7 +2917,7 @@
       <c r="B1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>251</v>
       </c>
     </row>
@@ -2931,7 +2928,7 @@
       <c r="B2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -2942,7 +2939,7 @@
       <c r="B3" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>257</v>
       </c>
     </row>
@@ -2953,7 +2950,7 @@
       <c r="B4" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>260</v>
       </c>
     </row>
@@ -2964,7 +2961,7 @@
       <c r="B5" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>263</v>
       </c>
     </row>
@@ -2975,7 +2972,7 @@
       <c r="B6" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>266</v>
       </c>
     </row>
@@ -2986,7 +2983,7 @@
       <c r="B7" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>269</v>
       </c>
     </row>
@@ -2997,7 +2994,7 @@
       <c r="B8" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3008,7 +3005,7 @@
       <c r="B9" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>275</v>
       </c>
     </row>
@@ -3019,7 +3016,7 @@
       <c r="B10" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>278</v>
       </c>
     </row>
@@ -3030,7 +3027,7 @@
       <c r="B11" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>281</v>
       </c>
     </row>
@@ -3041,7 +3038,7 @@
       <c r="B12" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3052,7 +3049,7 @@
       <c r="B13" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>287</v>
       </c>
     </row>
@@ -3063,7 +3060,7 @@
       <c r="B14" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>290</v>
       </c>
     </row>
@@ -3074,33 +3071,33 @@
       <c r="B15" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3129,7 +3126,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="54.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="59.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="51.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3139,7 +3136,7 @@
       <c r="B1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>296</v>
       </c>
     </row>
@@ -3150,7 +3147,7 @@
       <c r="B2" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>299</v>
       </c>
     </row>
@@ -3161,7 +3158,7 @@
       <c r="B3" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>302</v>
       </c>
     </row>
@@ -3172,7 +3169,7 @@
       <c r="B4" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3183,7 +3180,7 @@
       <c r="B5" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>308</v>
       </c>
     </row>
@@ -3194,7 +3191,7 @@
       <c r="B6" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>311</v>
       </c>
     </row>
@@ -3205,7 +3202,7 @@
       <c r="B7" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>314</v>
       </c>
     </row>
@@ -3216,7 +3213,7 @@
       <c r="B8" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>317</v>
       </c>
     </row>
@@ -3227,7 +3224,7 @@
       <c r="B9" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>320</v>
       </c>
     </row>
@@ -3238,7 +3235,7 @@
       <c r="B10" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>323</v>
       </c>
     </row>
@@ -3249,7 +3246,7 @@
       <c r="B11" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>326</v>
       </c>
     </row>
@@ -3260,7 +3257,7 @@
       <c r="B12" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>329</v>
       </c>
     </row>
